--- a/FMP/Assets/Resources/Sheets/函数对照表.xlsx
+++ b/FMP/Assets/Resources/Sheets/函数对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55626498-FC75-4400-A021-A243B019B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2B21B-11E9-44E8-9A9A-60597B3F0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14230" yWindow="2400" windowWidth="10790" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,22 @@
   </si>
   <si>
     <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Functions\functions.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +107,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,17 +149,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}" name="表1" displayName="表1" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C3" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}" name="表1" displayName="表1" ref="A1:C5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C5" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id">
       <xmlColumnPr mapId="1" xpath="/dialogues/line/@id" xmlDataType="string"/>
@@ -167,7 +256,7 @@
     <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名">
       <xmlColumnPr mapId="1" xpath="/dialogues/line/@functionName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释"/>
+    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataCellStyle="注释"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -448,25 +537,25 @@
     <col min="2" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -477,8 +566,30 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A997F75-504C-4693-AD78-34245BC78A53}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/FMP/Assets/Resources/Sheets/函数对照表.xlsx
+++ b/FMP/Assets/Resources/Sheets/函数对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2B21B-11E9-44E8-9A9A-60597B3F0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333398AD-D1BE-42A8-9A03-54526C009F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14230" yWindow="2400" windowWidth="10790" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,12 +204,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -247,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}" name="表1" displayName="表1" ref="A1:C5" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}" name="functions" displayName="functions" ref="A1:C5" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:C5" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id">
@@ -257,6 +264,17 @@
       <xmlColumnPr mapId="1" xpath="/dialogues/line/@functionName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataCellStyle="注释"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EDB2020-B5A9-4B49-94E9-C5CCBB0269BF}" name="表2" displayName="表2" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{3EDB2020-B5A9-4B49-94E9-C5CCBB0269BF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F3A30BD5-6E16-4A43-9FEA-F8F3F10732AC}" name="映射名称"/>
+    <tableColumn id="2" xr3:uid="{1E3E27ED-CE3E-499B-AAA9-D72C290C9639}" name="映射路径"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,7 +546,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -582,13 +600,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -603,27 +621,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A997F75-504C-4693-AD78-34245BC78A53}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="94.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>